--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/burndownchart-sprint2.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/burndownchart-sprint2.xlsx
@@ -78,7 +78,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -86,6 +86,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -196,11 +199,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1234396522"/>
-        <c:axId val="2062989143"/>
+        <c:axId val="475150310"/>
+        <c:axId val="788337780"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1234396522"/>
+        <c:axId val="475150310"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -252,10 +255,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2062989143"/>
+        <c:crossAx val="788337780"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2062989143"/>
+        <c:axId val="788337780"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -319,7 +322,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1234396522"/>
+        <c:crossAx val="475150310"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -592,6 +595,9 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5">
+      <c r="T5" s="3"/>
+    </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>2</v>
@@ -604,190 +610,190 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>45572.0</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>19.3</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>19.3</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <f>+B7/13</f>
         <v>1.484615385</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>45573.0</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <f t="shared" ref="B8:B20" si="1">+B7-D$7</f>
         <v>17.81538462</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>19.3</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>45574.0</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <f t="shared" si="1"/>
         <v>16.33076923</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>19.3</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>45575.0</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <f t="shared" si="1"/>
         <v>14.84615385</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>19.3</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>45576.0</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <f t="shared" si="1"/>
         <v>13.36153846</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>19.3</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>45577.0</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <f t="shared" si="1"/>
         <v>11.87692308</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>19.3</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>45578.0</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <f t="shared" si="1"/>
         <v>10.39230769</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <v>19.3</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>45579.0</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <f t="shared" si="1"/>
         <v>8.907692308</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="5">
         <v>19.3</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>45580.0</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <f t="shared" si="1"/>
         <v>7.423076923</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <v>19.3</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>45581.0</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="6">
         <f t="shared" si="1"/>
         <v>5.938461538</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="5">
         <v>19.3</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>45582.0</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="6">
         <f t="shared" si="1"/>
         <v>4.453846154</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="5">
         <v>19.3</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>45583.0</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="6">
         <f t="shared" si="1"/>
         <v>2.969230769</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="5">
         <v>15.8</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>45584.0</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="6">
         <f t="shared" si="1"/>
         <v>1.484615385</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="5">
         <v>14.1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>45585.0</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="7">
         <v>3.6</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
